--- a/Centrics/wwwroot/Centrics Networks.xlsx
+++ b/Centrics/wwwroot/Centrics Networks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Company Name</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t xml:space="preserve">kenneth@gizmosquare.com.sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye</t>
   </si>
 </sst>
 </file>
@@ -218,6 +227,25 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Centrics/wwwroot/Centrics Networks.xlsx
+++ b/Centrics/wwwroot/Centrics Networks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Company Name</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">1300001</t>
   </si>
   <si>
-    <t xml:space="preserve">No.8 Claymore Hill, #02-03, 8 on Claymore Singapore 229572</t>
+    <t xml:space="preserve">bnmvv</t>
   </si>
   <si>
     <t xml:space="preserve">Davis Lee</t>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">1300002</t>
   </si>
   <si>
+    <t xml:space="preserve">qweqweqweqwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curtis Chen</t>
   </si>
   <si>
@@ -81,15 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">kenneth@gizmosquare.com.sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bye</t>
   </si>
 </sst>
 </file>
@@ -209,42 +203,25 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Centrics/wwwroot/Centrics Networks.xlsx
+++ b/Centrics/wwwroot/Centrics Networks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Company Name</t>
   </si>
@@ -47,43 +47,22 @@
     <t xml:space="preserve">Secondary Email Address</t>
   </si>
   <si>
-    <t xml:space="preserve">True Yoga Pte Ltd</t>
+    <t xml:space="preserve">DogZone</t>
   </si>
   <si>
-    <t xml:space="preserve">1300001</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">bnmvv</t>
+    <t xml:space="preserve">12 Dog City #12-910 DOG12910</t>
   </si>
   <si>
-    <t xml:space="preserve">Davis Lee</t>
+    <t xml:space="preserve">Master Doggo</t>
   </si>
   <si>
-    <t xml:space="preserve">66727236</t>
+    <t xml:space="preserve">90232021</t>
   </si>
   <si>
-    <t xml:space="preserve">davis.lee@trueyoga.com.sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gizmo Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qweqweqweqwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtis Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curtis@gizmosquare.com.sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kenneth@gizmosquare.com.sg</t>
+    <t xml:space="preserve">dog@dog.com</t>
   </si>
 </sst>
 </file>
@@ -196,33 +175,6 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Centrics/wwwroot/Centrics Networks.xlsx
+++ b/Centrics/wwwroot/Centrics Networks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Company Name</t>
   </si>
@@ -47,22 +47,64 @@
     <t xml:space="preserve">Secondary Email Address</t>
   </si>
   <si>
-    <t xml:space="preserve">DogZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Dog City #12-910 DOG12910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Doggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90232021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog@dog.com</t>
+    <t xml:space="preserve">True Yoga Pte Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.8 Claymore Hill, #02-03, 8 on Claymore Singapore 229572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66727236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">davis.lee@trueyoga.com.sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gizmo Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curtis@gizmosquare.com.sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenneth@gizmosquare.com.sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Givemee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98123423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panda@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -175,6 +217,75 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
